--- a/test-code-generator/Evaluation/QuantitativeEvaluation/6/UC2.3_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/6/UC2.3_TC2.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.274613427374613</v>
+        <v>0.2358810330084158</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.274613427374613, 'ngram_match_score': 0.08737844542753467, 'weighted_ngram_match_score': 0.11353027189564324, 'syntax_match_score': 0.5243055555555556, 'dataflow_match_score': 0.3732394366197183}</t>
+          <t>{'codebleu': 0.23588103300841579, 'ngram_match_score': 0.08737844542753467, 'weighted_ngram_match_score': 0.11353027189564324, 'syntax_match_score': 0.5243055555555556, 'dataflow_match_score': 0.21830985915492956}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
